--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_22_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_22_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_13</t>
+          <t>model_22_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9874168344329314</v>
+        <v>0.9989640890074808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7810583459167419</v>
+        <v>0.7891492121162322</v>
       </c>
       <c r="D2" t="n">
-        <v>0.940070801274177</v>
+        <v>0.9897204174064121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9720517741817847</v>
+        <v>0.995507988088984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9522999816584572</v>
+        <v>0.9924807374643135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08414368608713764</v>
+        <v>0.006927141576907578</v>
       </c>
       <c r="H2" t="n">
-        <v>1.464063848988366</v>
+        <v>1.409960189457361</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3690526932736622</v>
+        <v>0.03137748777588104</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09843056131519062</v>
+        <v>0.01134099070549621</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2337416502925877</v>
+        <v>0.02135919307656385</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5891595859428336</v>
+        <v>0.3419040959218325</v>
       </c>
       <c r="M2" t="n">
-        <v>0.290075311061003</v>
+        <v>0.08322945137934995</v>
       </c>
       <c r="N2" t="n">
-        <v>1.017764469035862</v>
+        <v>1.001462462577674</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3024244175915436</v>
+        <v>0.08677270143328474</v>
       </c>
       <c r="P2" t="n">
-        <v>86.95045878560914</v>
+        <v>91.94461604346908</v>
       </c>
       <c r="Q2" t="n">
-        <v>136.9243676052054</v>
+        <v>141.9185248630653</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_14</t>
+          <t>model_22_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9877120163060035</v>
+        <v>0.998952044251984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7810503922786822</v>
+        <v>0.7891107025593129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9406200065877699</v>
+        <v>0.9896112705422584</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9714383263068738</v>
+        <v>0.9953971659509199</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9524246303159917</v>
+        <v>0.9923728295017535</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08216980354271743</v>
+        <v>0.007007684912375414</v>
       </c>
       <c r="H3" t="n">
-        <v>1.464117035002694</v>
+        <v>1.4102177030418</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3656706073380734</v>
+        <v>0.03171064861821856</v>
       </c>
       <c r="J3" t="n">
-        <v>0.100591056906497</v>
+        <v>0.01162078356060118</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2331308416612318</v>
+        <v>0.02166571608940987</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5663950521726538</v>
+        <v>0.3452685742202637</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2866527577797175</v>
+        <v>0.08371191619103827</v>
       </c>
       <c r="N3" t="n">
-        <v>1.017347741685642</v>
+        <v>1.001479466938376</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2988561591314119</v>
+        <v>0.08727570577084647</v>
       </c>
       <c r="P3" t="n">
-        <v>86.9979347958115</v>
+        <v>91.92149577498495</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.9718436154077</v>
+        <v>141.8954045945812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_12</t>
+          <t>model_22_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9870510866717294</v>
+        <v>0.9989408370970787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7810413770694791</v>
+        <v>0.7890755941663891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9394448312119091</v>
+        <v>0.989512265859968</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9727043391832455</v>
+        <v>0.9952962104211009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9521411623093092</v>
+        <v>0.9922747800097171</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08658944305040941</v>
+        <v>0.00708262720883127</v>
       </c>
       <c r="H4" t="n">
-        <v>1.464177319748147</v>
+        <v>1.410452473026942</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3729075076596431</v>
+        <v>0.03201285137597052</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09613229952904961</v>
+        <v>0.01187566617178406</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2345199035943463</v>
+        <v>0.02194423516246056</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6144701497955761</v>
+        <v>0.3482926906446626</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2942608418570324</v>
+        <v>0.0841583460438195</v>
       </c>
       <c r="N4" t="n">
-        <v>1.018280818816382</v>
+        <v>1.001495288804124</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3067881350988032</v>
+        <v>0.08774114106669781</v>
       </c>
       <c r="P4" t="n">
-        <v>86.89315475114883</v>
+        <v>91.90022073082802</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.8670635707451</v>
+        <v>141.8741295504243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_15</t>
+          <t>model_22_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9879501732501741</v>
+        <v>0.9989304361574702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7810244056999267</v>
+        <v>0.7890436727439905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9411028319238093</v>
+        <v>0.9894224205082747</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9708652112151476</v>
+        <v>0.9952042300271935</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9525220651943205</v>
+        <v>0.9921856151720619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08057724696043637</v>
+        <v>0.007152178339884976</v>
       </c>
       <c r="H5" t="n">
-        <v>1.464290807374489</v>
+        <v>1.410665931725506</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3626972989269051</v>
+        <v>0.03228709611293443</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1026095048947069</v>
+        <v>0.01210788924088015</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2326533871434252</v>
+        <v>0.02219751651473136</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5459142218307124</v>
+        <v>0.351016159804324</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2838613164213052</v>
+        <v>0.0845705524392798</v>
       </c>
       <c r="N5" t="n">
-        <v>1.017011520117401</v>
+        <v>1.001509972483571</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2959458803352918</v>
+        <v>0.08817089594179772</v>
       </c>
       <c r="P5" t="n">
-        <v>87.03707793019746</v>
+        <v>91.88067661151113</v>
       </c>
       <c r="Q5" t="n">
-        <v>137.0109867497937</v>
+        <v>141.8545854311074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_11</t>
+          <t>model_22_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.986597943288713</v>
+        <v>0.9989208402915464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7809907292312981</v>
+        <v>0.789014659108722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9387295239124325</v>
+        <v>0.9893412320269455</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9733937500047977</v>
+        <v>0.9951205241791404</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9519394439851266</v>
+        <v>0.9921048037976722</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08961961493917339</v>
+        <v>0.007216345939503259</v>
       </c>
       <c r="H6" t="n">
-        <v>1.464516002075275</v>
+        <v>1.410859946038141</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3773124737029552</v>
+        <v>0.03253491654311789</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0937042708383011</v>
+        <v>0.01231922154889054</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2355083722706282</v>
+        <v>0.02242706904600422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6426133750903575</v>
+        <v>0.3534588360487242</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2993653536052116</v>
+        <v>0.08494907850885293</v>
       </c>
       <c r="N6" t="n">
-        <v>1.018920550651229</v>
+        <v>1.001523519588405</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3121099564798985</v>
+        <v>0.08856553664980955</v>
       </c>
       <c r="P6" t="n">
-        <v>86.82436213245636</v>
+        <v>91.86281311350481</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.7982709520526</v>
+        <v>141.836721933101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_16</t>
+          <t>model_22_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9881423073802467</v>
+        <v>0.9989120105682711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7809857809021985</v>
+        <v>0.788988337050703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9415285472624279</v>
+        <v>0.9892676961870505</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9703327452179722</v>
+        <v>0.9950446004863998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9525982274888567</v>
+        <v>0.9920315454988493</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07929244514794494</v>
+        <v>0.007275390339702306</v>
       </c>
       <c r="H7" t="n">
-        <v>1.464549091574748</v>
+        <v>1.411035961761316</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3600756821586933</v>
+        <v>0.03275937798368602</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1044847912661611</v>
+        <v>0.01251090623511937</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2322801734417553</v>
+        <v>0.02263516633501256</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5274898903469947</v>
+        <v>0.3556625076769445</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2815891424539393</v>
+        <v>0.08529589872732631</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016740271933769</v>
+        <v>1.001535985080088</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2935769752180866</v>
+        <v>0.08892712172300017</v>
       </c>
       <c r="P7" t="n">
-        <v>87.06922484827285</v>
+        <v>91.84651562484412</v>
       </c>
       <c r="Q7" t="n">
-        <v>137.0431336678691</v>
+        <v>141.8204244444403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_17</t>
+          <t>model_22_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.988297283136087</v>
+        <v>0.9989039024805469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.780938603219627</v>
+        <v>0.7889644161322382</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9419042770820407</v>
+        <v>0.9892012406434419</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9698397360913166</v>
+        <v>0.994975618545047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9526571376892946</v>
+        <v>0.9919651932687114</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07825612155504243</v>
+        <v>0.007329609159647511</v>
       </c>
       <c r="H8" t="n">
-        <v>1.464864568955337</v>
+        <v>1.411195921053236</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3577618834625732</v>
+        <v>0.03296222746597112</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1062211149020824</v>
+        <v>0.01268506506889508</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2319914991823278</v>
+        <v>0.0228236462674331</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5109170252502609</v>
+        <v>0.3576392963713751</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2797429562206034</v>
+        <v>0.08561313660675861</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016521482631407</v>
+        <v>1.001547431792169</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2916521930146652</v>
+        <v>0.08925786507573284</v>
       </c>
       <c r="P8" t="n">
-        <v>87.09553644377274</v>
+        <v>91.83166617030707</v>
       </c>
       <c r="Q8" t="n">
-        <v>137.069445263369</v>
+        <v>141.8055749899033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_10</t>
+          <t>model_22_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9860364428710837</v>
+        <v>0.9988964701880817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7808951531428233</v>
+        <v>0.7889427754221787</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9379096285611637</v>
+        <v>0.9891410385195922</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9741147576133753</v>
+        <v>0.9949130955417929</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9516833798651823</v>
+        <v>0.991905054055771</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09337437081733152</v>
+        <v>0.007379308933585103</v>
       </c>
       <c r="H9" t="n">
-        <v>1.465155119818993</v>
+        <v>1.41134063258105</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3823615081306077</v>
+        <v>0.03314598895511504</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09116496175705849</v>
+        <v>0.01284291700981403</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2367631485172107</v>
+        <v>0.02299447752310063</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6739162616931412</v>
+        <v>0.3594200153079653</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3055722022981336</v>
+        <v>0.08590290410448941</v>
       </c>
       <c r="N9" t="n">
-        <v>1.019713257123176</v>
+        <v>1.001557924440355</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3185810435716263</v>
+        <v>0.08955996857574346</v>
       </c>
       <c r="P9" t="n">
-        <v>86.74227674757319</v>
+        <v>91.81815057037984</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.7161855671694</v>
+        <v>141.7920593899761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_18</t>
+          <t>model_22_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9884222091214405</v>
+        <v>0.9988896780292144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7808860960348736</v>
+        <v>0.7889231636002526</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9422367235379688</v>
+        <v>0.9890867003357938</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9693848603512312</v>
+        <v>0.9948564004302431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9527025672181956</v>
+        <v>0.9918506726105859</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07742074091575216</v>
+        <v>0.007424728131206367</v>
       </c>
       <c r="H10" t="n">
-        <v>1.465215684741557</v>
+        <v>1.411471776924574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3557146299945118</v>
+        <v>0.03331185130238222</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1078231369666131</v>
+        <v>0.01298605526186433</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2317688834805624</v>
+        <v>0.02314895328212327</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4960021011724639</v>
+        <v>0.3610232640244105</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2782458282090716</v>
+        <v>0.08616686214088551</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016345116534437</v>
+        <v>1.001567513370521</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2900913291642002</v>
+        <v>0.0898351638522174</v>
       </c>
       <c r="P10" t="n">
-        <v>87.11700112759276</v>
+        <v>91.80587842057895</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.090909947189</v>
+        <v>141.7797872401752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_19</t>
+          <t>model_22_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9885229078612839</v>
+        <v>0.9988834836575839</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7808307078500509</v>
+        <v>0.7889054185332852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9425311420555851</v>
+        <v>0.9890377018334062</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9689666530781214</v>
+        <v>0.9948051369868584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9527372789843225</v>
+        <v>0.9918015652598355</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07674736797874449</v>
+        <v>0.007466149922820824</v>
       </c>
       <c r="H11" t="n">
-        <v>1.465586065788505</v>
+        <v>1.411590438269094</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3539015580832219</v>
+        <v>0.03346141475942965</v>
       </c>
       <c r="J11" t="n">
-        <v>0.109296016744601</v>
+        <v>0.01311548017134267</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2315987874139114</v>
+        <v>0.02328844746538616</v>
       </c>
       <c r="L11" t="n">
-        <v>0.482582378475525</v>
+        <v>0.362463229468265</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2770331532122906</v>
+        <v>0.08640688585304312</v>
       </c>
       <c r="N11" t="n">
-        <v>1.016202953607599</v>
+        <v>1.001576258365764</v>
       </c>
       <c r="O11" t="n">
-        <v>0.288827028082223</v>
+        <v>0.09008540587071914</v>
       </c>
       <c r="P11" t="n">
-        <v>87.13447237307884</v>
+        <v>91.79475163589844</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.1083811926751</v>
+        <v>141.7686604554947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_20</t>
+          <t>model_22_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9886040339408946</v>
+        <v>0.9988778465509635</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7807742536395753</v>
+        <v>0.7888893366150695</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9427925413678844</v>
+        <v>0.9889934919858479</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9685830120549773</v>
+        <v>0.9947587059966474</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9527636878657515</v>
+        <v>0.991757178296589</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0762048775108367</v>
+        <v>0.007503845280748809</v>
       </c>
       <c r="H12" t="n">
-        <v>1.465963575353904</v>
+        <v>1.411697978130253</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3522918232248388</v>
+        <v>0.03359636128461265</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1106471580119296</v>
+        <v>0.01323270457743513</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2314693774945396</v>
+        <v>0.02341453293102389</v>
       </c>
       <c r="L12" t="n">
-        <v>0.470506645868441</v>
+        <v>0.3637548532667476</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2760523093742139</v>
+        <v>0.086624738272325</v>
       </c>
       <c r="N12" t="n">
-        <v>1.016088422671678</v>
+        <v>1.001584216633934</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2878044276913327</v>
+        <v>0.09031253271850653</v>
       </c>
       <c r="P12" t="n">
-        <v>87.14865961801897</v>
+        <v>91.78467937145574</v>
       </c>
       <c r="Q12" t="n">
-        <v>137.1225684376152</v>
+        <v>141.758588191052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_9</t>
+          <t>model_22_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.985340648277076</v>
+        <v>0.9988727091807968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.780740339756113</v>
+        <v>0.7888747755998187</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9369669098729537</v>
+        <v>0.9889535388515108</v>
       </c>
       <c r="E13" t="n">
-        <v>0.974859976364411</v>
+        <v>0.9947167139948839</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9513588047814485</v>
+        <v>0.9917170510633654</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09802715247130088</v>
+        <v>0.007538198898708418</v>
       </c>
       <c r="H13" t="n">
-        <v>1.466190357648775</v>
+        <v>1.411795347706282</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3881669064719905</v>
+        <v>0.03371831458114534</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08854038370891458</v>
+        <v>0.01333872186125788</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2383536450904526</v>
+        <v>0.02352851822120161</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7087344073966804</v>
+        <v>0.3649236144963702</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3130928815404478</v>
+        <v>0.08682280172114015</v>
       </c>
       <c r="N13" t="n">
-        <v>1.02069555537354</v>
+        <v>1.001591469391816</v>
       </c>
       <c r="O13" t="n">
-        <v>0.326421893699238</v>
+        <v>0.09051902813838561</v>
       </c>
       <c r="P13" t="n">
-        <v>86.64502154530717</v>
+        <v>91.77554399669455</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.6189303649034</v>
+        <v>141.7494528162908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_21</t>
+          <t>model_22_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9886692842437615</v>
+        <v>0.9988680377097428</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7807180576159163</v>
+        <v>0.78886168022379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9430244905745243</v>
+        <v>0.9889174944398447</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9682319909864637</v>
+        <v>0.9946786994791209</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9527832678358066</v>
+        <v>0.9916807915007434</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07576854843511555</v>
+        <v>0.007569437047157303</v>
       </c>
       <c r="H14" t="n">
-        <v>1.466339358422871</v>
+        <v>1.411882916546085</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3508634463862832</v>
+        <v>0.03382833685842627</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1118834154055824</v>
+        <v>0.01343469717888452</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2313734308959328</v>
+        <v>0.02363151701865539</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4596395634708276</v>
+        <v>0.365972547081444</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2752608734185001</v>
+        <v>0.08700251172901449</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015996304597043</v>
+        <v>1.001598064409775</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2869792986684859</v>
+        <v>0.09070638877334615</v>
       </c>
       <c r="P14" t="n">
-        <v>87.16014400147401</v>
+        <v>91.76727316118343</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.1340528210702</v>
+        <v>141.7411819807797</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_22</t>
+          <t>model_22_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9887218314237288</v>
+        <v>0.9988637974240916</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7806631703273428</v>
+        <v>0.7888498117634805</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9432309374430984</v>
+        <v>0.988884947864183</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9679110342459938</v>
+        <v>0.9946444038519945</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9527976526503052</v>
+        <v>0.9916480550650245</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07541716520071645</v>
+        <v>0.007597791856831392</v>
       </c>
       <c r="H15" t="n">
-        <v>1.466706389974294</v>
+        <v>1.411962280994824</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3495921166424337</v>
+        <v>0.03392768231050793</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1130137895598429</v>
+        <v>0.01352128341155368</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2313029418186335</v>
+        <v>0.02372450803311202</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4498602957406135</v>
+        <v>0.366915644973328</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2746218585632186</v>
+        <v>0.08716531338113453</v>
       </c>
       <c r="N15" t="n">
-        <v>1.015922120342971</v>
+        <v>1.0016040506954</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2863130796278719</v>
+        <v>0.09087612122884284</v>
       </c>
       <c r="P15" t="n">
-        <v>87.16944074939164</v>
+        <v>91.75979523812008</v>
       </c>
       <c r="Q15" t="n">
-        <v>137.1433495689879</v>
+        <v>141.7337040577163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_23</t>
+          <t>model_22_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9887641075943105</v>
+        <v>0.9988599537122261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7806102243449213</v>
+        <v>0.7888391268078734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9434150931014338</v>
+        <v>0.9888556410657771</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9676183711600407</v>
+        <v>0.9946133931070038</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9528082224145918</v>
+        <v>0.9916185368193546</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07513446425337271</v>
+        <v>0.007623494775774488</v>
       </c>
       <c r="H16" t="n">
-        <v>1.46706044000254</v>
+        <v>1.412033731342168</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3484580594026371</v>
+        <v>0.03401713863817116</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1140445165911031</v>
+        <v>0.01359957629627352</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2312511474119759</v>
+        <v>0.02380835746722234</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4410629850014325</v>
+        <v>0.3677656344652758</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2741066658317027</v>
+        <v>0.08731262666862387</v>
       </c>
       <c r="N16" t="n">
-        <v>1.015862436337444</v>
+        <v>1.001609477112151</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2857759540751794</v>
+        <v>0.09102970594796113</v>
       </c>
       <c r="P16" t="n">
-        <v>87.17695182796683</v>
+        <v>91.75304076486337</v>
       </c>
       <c r="Q16" t="n">
-        <v>137.1508606475631</v>
+        <v>141.7269495844596</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_24</t>
+          <t>model_22_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9887980033230409</v>
+        <v>0.9988564734453088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7805597137739428</v>
+        <v>0.7888294642861577</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9435788195642923</v>
+        <v>0.9888291978816792</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9673519783569083</v>
+        <v>0.9945855105562174</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9528153408505834</v>
+        <v>0.9915919384415878</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07490780335927741</v>
+        <v>0.007646767336675818</v>
       </c>
       <c r="H17" t="n">
-        <v>1.467398204423253</v>
+        <v>1.412098344669372</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3474498081100648</v>
+        <v>0.03409785404448577</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1149827225907685</v>
+        <v>0.01366997142335206</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2312162653504167</v>
+        <v>0.02388391273391891</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4331412598408095</v>
+        <v>0.3685300821358914</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2736928997239012</v>
+        <v>0.08744579656379041</v>
       </c>
       <c r="N17" t="n">
-        <v>1.015814583543942</v>
+        <v>1.001614390430152</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2853445730875548</v>
+        <v>0.09116854516126459</v>
       </c>
       <c r="P17" t="n">
-        <v>87.18299442036748</v>
+        <v>91.74694458164177</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.1569032399637</v>
+        <v>141.720853401238</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_8</t>
+          <t>model_22_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9844783680011848</v>
+        <v>0.9988533238849966</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7805082052903878</v>
+        <v>0.7888207737996251</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9358792122140859</v>
+        <v>0.9888054681812066</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9756181989182097</v>
+        <v>0.9945602658998759</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9509477876597598</v>
+        <v>0.9915679702431717</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1037932246466208</v>
+        <v>0.007667828460985523</v>
       </c>
       <c r="H18" t="n">
-        <v>1.467742641889961</v>
+        <v>1.412156457992832</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3948651063312804</v>
+        <v>0.03417028678966048</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08587000770516849</v>
+        <v>0.01373370665349033</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2403677285994802</v>
+        <v>0.02395199672157541</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7474902257477514</v>
+        <v>0.3692147486727663</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3221695588453707</v>
+        <v>0.08756613763884714</v>
       </c>
       <c r="N18" t="n">
-        <v>1.021912892233621</v>
+        <v>1.00161883686824</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3358849839483438</v>
+        <v>0.09129400940502687</v>
       </c>
       <c r="P18" t="n">
-        <v>86.53070916706935</v>
+        <v>91.74144364962493</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.5046179866656</v>
+        <v>141.7153524692212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_7</t>
+          <t>model_22_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9834094708350608</v>
+        <v>0.9988504617275012</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7801756053964287</v>
+        <v>0.7888129109866184</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9346197780288353</v>
+        <v>0.9887838974179849</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9763719376402965</v>
+        <v>0.9945374589443066</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9504273184353631</v>
+        <v>0.9915462453104241</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1109409449183112</v>
+        <v>0.007686967721336075</v>
       </c>
       <c r="H19" t="n">
-        <v>1.469966738912347</v>
+        <v>1.412209036659613</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4026208846154863</v>
+        <v>0.03423612957589647</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08321542326096927</v>
+        <v>0.0137912874160209</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2429181539382278</v>
+        <v>0.02401370849595869</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7906170470029765</v>
+        <v>0.3698353023119912</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3330779862409272</v>
+        <v>0.08767535412723507</v>
       </c>
       <c r="N19" t="n">
-        <v>1.023421923526973</v>
+        <v>1.001622877561175</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3472578056816867</v>
+        <v>0.09140787546543476</v>
       </c>
       <c r="P19" t="n">
-        <v>86.3975144940195</v>
+        <v>91.73645777549532</v>
       </c>
       <c r="Q19" t="n">
-        <v>136.3714233136157</v>
+        <v>141.7103665950916</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_6</t>
+          <t>model_22_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9820838660292315</v>
+        <v>0.9988478824381148</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7797131595886674</v>
+        <v>0.7888058173575854</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9331545954679339</v>
+        <v>0.9887645771975108</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9770970866923221</v>
+        <v>0.9945169320292571</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9497672580394364</v>
+        <v>0.9915267427977766</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1198052703587406</v>
+        <v>0.007704215441339924</v>
       </c>
       <c r="H20" t="n">
-        <v>1.473059116158214</v>
+        <v>1.41225647178962</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4116436912228655</v>
+        <v>0.03429510278577513</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08066152847378975</v>
+        <v>0.01384311175607169</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2461526098483276</v>
+        <v>0.02406910727092341</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8386598498876049</v>
+        <v>0.3703906254380269</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3461289793685882</v>
+        <v>0.08777366029362069</v>
       </c>
       <c r="N20" t="n">
-        <v>1.025293365605791</v>
+        <v>1.001626518910897</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3608644066060725</v>
+        <v>0.09151036672884523</v>
       </c>
       <c r="P20" t="n">
-        <v>86.2437752025813</v>
+        <v>91.73197528001947</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.2176840221775</v>
+        <v>141.7058840996157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_5</t>
+          <t>model_22_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9804391628489044</v>
+        <v>0.9988455459418565</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7790833344390007</v>
+        <v>0.7887994076018013</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9314416640878012</v>
+        <v>0.9887471265874024</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9777595186104033</v>
+        <v>0.9944983916770558</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9489289889391703</v>
+        <v>0.9915091276163231</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1308034080987494</v>
+        <v>0.00771983960257793</v>
       </c>
       <c r="H21" t="n">
-        <v>1.477270759834113</v>
+        <v>1.412299333856062</v>
       </c>
       <c r="I21" t="n">
-        <v>0.422192170973498</v>
+        <v>0.03434836918062828</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07832851649821992</v>
+        <v>0.01388992061725819</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2502603315997644</v>
+        <v>0.02411914489894323</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8922036568962877</v>
+        <v>0.3708916956824688</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3616675380770983</v>
+        <v>0.08786261777671964</v>
       </c>
       <c r="N21" t="n">
-        <v>1.027615299507429</v>
+        <v>1.00162981749385</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3770644739280546</v>
+        <v>0.09160311131616709</v>
       </c>
       <c r="P21" t="n">
-        <v>86.0681195689953</v>
+        <v>91.72792338405887</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.0420283885915</v>
+        <v>141.7018322036551</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_4</t>
+          <t>model_22_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.978397060942903</v>
+        <v>0.9988434397762822</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7782378046064926</v>
+        <v>0.7887936483876306</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9294291639966713</v>
+        <v>0.9887313681972743</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9783105218260509</v>
+        <v>0.9944816867971832</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9478624312741815</v>
+        <v>0.991493228319586</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1444589529471956</v>
+        <v>0.007733923541471329</v>
       </c>
       <c r="H22" t="n">
-        <v>1.482924821717402</v>
+        <v>1.41233784574774</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4345854382728472</v>
+        <v>0.03439647022842001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07638794409282136</v>
+        <v>0.01393209545809219</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2554867226456059</v>
+        <v>0.02416430839033335</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9519200196140862</v>
+        <v>0.3713435666425244</v>
       </c>
       <c r="M22" t="n">
-        <v>0.380077561751803</v>
+        <v>0.08794272875838757</v>
       </c>
       <c r="N22" t="n">
-        <v>1.030498266904137</v>
+        <v>1.001632790904072</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3962582504245942</v>
+        <v>0.09168663278817722</v>
       </c>
       <c r="P22" t="n">
-        <v>85.86951974886451</v>
+        <v>91.72427794374472</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.8434285684607</v>
+        <v>141.698186763341</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_3</t>
+          <t>model_22_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9758593232575922</v>
+        <v>0.9988415381317565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7771140132671908</v>
+        <v>0.7887884732070489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9270497734433536</v>
+        <v>0.9887172803700792</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9786810728298717</v>
+        <v>0.9944665802683927</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9465005058440299</v>
+        <v>0.9914789548764593</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1614288165340763</v>
+        <v>0.007746639847170572</v>
       </c>
       <c r="H23" t="n">
-        <v>1.490439619577896</v>
+        <v>1.41237245220412</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4492380702239139</v>
+        <v>0.03443947203531023</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07508290442628865</v>
+        <v>0.01397023493901954</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2621604873251013</v>
+        <v>0.02420485348716488</v>
       </c>
       <c r="L23" t="n">
-        <v>1.018841499302275</v>
+        <v>0.3717477443913019</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4017820510352301</v>
+        <v>0.08801499785360772</v>
       </c>
       <c r="N23" t="n">
-        <v>1.034080955401046</v>
+        <v>1.001635475578697</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4188867447513036</v>
+        <v>0.09176197852839854</v>
       </c>
       <c r="P23" t="n">
-        <v>85.64738199595907</v>
+        <v>91.72099219548346</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.6212908155553</v>
+        <v>141.6949010150797</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_2</t>
+          <t>model_22_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9727019530415453</v>
+        <v>0.9988398260434709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7756299606311883</v>
+        <v>0.7887837792795824</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9242172369532521</v>
+        <v>0.9887046443719331</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9787737779414689</v>
+        <v>0.9944530429428347</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9447539961152727</v>
+        <v>0.9914661363061408</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1825421657071352</v>
+        <v>0.007758088589420111</v>
       </c>
       <c r="H24" t="n">
-        <v>1.500363486388279</v>
+        <v>1.412403840518702</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4666812405431165</v>
+        <v>0.03447804226651929</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07475640727292171</v>
+        <v>0.01400441264966966</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2707188082743453</v>
+        <v>0.02424126587695709</v>
       </c>
       <c r="L24" t="n">
-        <v>1.094262566886178</v>
+        <v>0.3721103439164022</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4272495356429721</v>
+        <v>0.0880800124285874</v>
       </c>
       <c r="N24" t="n">
-        <v>1.038538419235465</v>
+        <v>1.001637892644512</v>
       </c>
       <c r="O24" t="n">
-        <v>0.445438432903758</v>
+        <v>0.09182976090843382</v>
       </c>
       <c r="P24" t="n">
-        <v>85.40154817535154</v>
+        <v>91.71803858184821</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.3754569949478</v>
+        <v>141.6919474014445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_1</t>
+          <t>model_22_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9687680255496628</v>
+        <v>0.9988382622074783</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7736767485357059</v>
+        <v>0.7887795586677369</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9208194680993377</v>
+        <v>0.9886929995662049</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9784474887188126</v>
+        <v>0.9944408024626714</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9425017463915938</v>
+        <v>0.9914544536499027</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2088483569594242</v>
+        <v>0.007768545967903639</v>
       </c>
       <c r="H25" t="n">
-        <v>1.513424624664484</v>
+        <v>1.412432063769547</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4876051936964926</v>
+        <v>0.03451358697332616</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07590556183987228</v>
+        <v>0.01403531621237414</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2817553777681824</v>
+        <v>0.02427445159285015</v>
       </c>
       <c r="L25" t="n">
-        <v>1.178708884445919</v>
+        <v>0.3724415331749679</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4569992964539706</v>
+        <v>0.08813935538624978</v>
       </c>
       <c r="N25" t="n">
-        <v>1.044092199224006</v>
+        <v>1.001640100412972</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4764547026229755</v>
+        <v>0.09189163021866076</v>
       </c>
       <c r="P25" t="n">
-        <v>85.13229371030859</v>
+        <v>91.71534453246458</v>
       </c>
       <c r="Q25" t="n">
-        <v>135.1062025299048</v>
+        <v>141.6892533520608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_0</t>
+          <t>model_22_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9638573828955861</v>
+        <v>0.9988368604431491</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7711067648847403</v>
+        <v>0.7887757305681806</v>
       </c>
       <c r="D26" t="n">
-        <v>0.916707802867652</v>
+        <v>0.9886826648399325</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9774986704417004</v>
+        <v>0.994429720282724</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9395772110810405</v>
+        <v>0.9914439896495673</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2416858469986651</v>
+        <v>0.007777919572427117</v>
       </c>
       <c r="H26" t="n">
-        <v>1.530610117172178</v>
+        <v>1.412457662288907</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5129254242327879</v>
+        <v>0.03454513278214938</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07924719490845149</v>
+        <v>0.01406329541240066</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2960863095706197</v>
+        <v>0.02430417559868951</v>
       </c>
       <c r="L26" t="n">
-        <v>1.273419721481824</v>
+        <v>0.3727372417986314</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4916155479626994</v>
+        <v>0.0881925142652545</v>
       </c>
       <c r="N26" t="n">
-        <v>1.051024871206231</v>
+        <v>1.001642079374378</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5125446396239499</v>
+        <v>0.09194705218119874</v>
       </c>
       <c r="P26" t="n">
-        <v>84.84023309810786</v>
+        <v>91.71293276738909</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.8141419177041</v>
+        <v>141.6868415869853</v>
       </c>
     </row>
   </sheetData>
